--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X33 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/28Sept2013_Xining_Physioflow_X33X37_repeatX15/X33 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,21 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -150,37 +135,395 @@
     <t>Avg EDFR</t>
   </si>
   <si>
-    <t>max</t>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
   </si>
   <si>
     <t>105w, submax</t>
   </si>
   <si>
-    <t>ABG @ rest</t>
+    <t>max</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.47</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.62</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="299489104"/>
+        <c:axId val="369227608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="299489104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369227608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369227608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299489104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="9474200"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2252,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,57 +2347,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.1074074074074074</v>
+        <v>0.107407407407407</v>
       </c>
       <c r="C6">
         <v>104</v>
@@ -685,12 +2445,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.10752314814814816</v>
+        <v>0.107523148148148</v>
       </c>
       <c r="C7">
         <v>110</v>
@@ -738,12 +2498,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.1076388888888889</v>
+        <v>0.107638888888889</v>
       </c>
       <c r="C8">
         <v>111</v>
@@ -752,7 +2512,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="F8">
         <v>2.83</v>
@@ -791,12 +2551,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.10775462962962963</v>
+        <v>0.10775462962963</v>
       </c>
       <c r="C9">
         <v>103</v>
@@ -844,12 +2604,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.10787037037037038</v>
+        <v>0.10787037037037</v>
       </c>
       <c r="C10">
         <v>103</v>
@@ -897,12 +2657,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.10798611111111112</v>
+        <v>0.107986111111111</v>
       </c>
       <c r="C11">
         <v>101</v>
@@ -941,7 +2701,7 @@
         <v>2099</v>
       </c>
       <c r="O11">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="P11">
         <v>146</v>
@@ -950,15 +2710,15 @@
         <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.10810185185185185</v>
+        <v>0.108101851851852</v>
       </c>
       <c r="C12">
         <v>102</v>
@@ -1006,12 +2766,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.1082175925925926</v>
+        <v>0.108217592592593</v>
       </c>
       <c r="C13">
         <v>103</v>
@@ -1050,7 +2810,7 @@
         <v>2036</v>
       </c>
       <c r="O13">
-        <v>2.5299999999999998</v>
+        <v>2.53</v>
       </c>
       <c r="P13">
         <v>142</v>
@@ -1059,12 +2819,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.10833333333333334</v>
+        <v>0.108333333333333</v>
       </c>
       <c r="C14">
         <v>104</v>
@@ -1112,12 +2872,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.10844907407407407</v>
+        <v>0.108449074074074</v>
       </c>
       <c r="C15">
         <v>105</v>
@@ -1165,12 +2925,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.10856481481481482</v>
+        <v>0.108564814814815</v>
       </c>
       <c r="C16">
         <v>105</v>
@@ -1209,7 +2969,7 @@
         <v>2050</v>
       </c>
       <c r="O16">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="P16">
         <v>137</v>
@@ -1218,12 +2978,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.10868055555555556</v>
+        <v>0.108680555555556</v>
       </c>
       <c r="C17">
         <v>106</v>
@@ -1235,7 +2995,7 @@
         <v>3.73</v>
       </c>
       <c r="F17">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G17">
         <v>55</v>
@@ -1271,75 +3031,75 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U17">
-        <f>AVERAGE(C6:C17)</f>
+        <f t="shared" ref="U17:AI17" si="0">AVERAGE(C6:C17)</f>
         <v>104.75</v>
       </c>
       <c r="V17">
-        <f>AVERAGE(D6:D17)</f>
-        <v>36.833333333333336</v>
+        <f t="shared" si="0"/>
+        <v>36.8333333333333</v>
       </c>
       <c r="W17">
-        <f>AVERAGE(E6:E17)</f>
-        <v>3.9149999999999996</v>
+        <f t="shared" si="0"/>
+        <v>3.915</v>
       </c>
       <c r="X17">
-        <f>AVERAGE(F6:F17)</f>
-        <v>2.6774999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.6775</v>
       </c>
       <c r="Y17">
-        <f>AVERAGE(G6:G17)</f>
-        <v>55.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>55.6666666666667</v>
       </c>
       <c r="Z17">
-        <f>AVERAGE(H6:H17)</f>
-        <v>455.33333333333331</v>
+        <f t="shared" si="0"/>
+        <v>455.333333333333</v>
       </c>
       <c r="AA17">
-        <f>AVERAGE(I6:I17)</f>
+        <f t="shared" si="0"/>
         <v>103.5</v>
       </c>
       <c r="AB17">
-        <f>AVERAGE(J6:J17)</f>
-        <v>87.583333333333329</v>
+        <f t="shared" si="0"/>
+        <v>87.5833333333333</v>
       </c>
       <c r="AC17">
-        <f>AVERAGE(K6:K17)</f>
+        <f t="shared" si="0"/>
         <v>68.5</v>
       </c>
       <c r="AD17">
-        <f>AVERAGE(L6:L17)</f>
-        <v>65.833333333333329</v>
+        <f t="shared" si="0"/>
+        <v>65.8333333333333</v>
       </c>
       <c r="AE17">
-        <f>AVERAGE(M6:M17)</f>
-        <v>1397.4166666666667</v>
+        <f t="shared" si="0"/>
+        <v>1397.41666666667</v>
       </c>
       <c r="AF17">
-        <f>AVERAGE(N6:N17)</f>
-        <v>2042.0833333333333</v>
+        <f t="shared" si="0"/>
+        <v>2042.08333333333</v>
       </c>
       <c r="AG17">
-        <f>AVERAGE(O6:O17)</f>
-        <v>2.5208333333333335</v>
+        <f t="shared" si="0"/>
+        <v>2.52083333333333</v>
       </c>
       <c r="AH17">
-        <f>AVERAGE(P6:P17)</f>
-        <v>142.83333333333334</v>
+        <f t="shared" si="0"/>
+        <v>142.833333333333</v>
       </c>
       <c r="AI17">
-        <f>AVERAGE(Q6:Q17)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.10879629629629629</v>
+        <v>0.108796296296296</v>
       </c>
       <c r="C18">
         <v>106</v>
@@ -1378,7 +3138,7 @@
         <v>2121</v>
       </c>
       <c r="O18">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="P18">
         <v>137</v>
@@ -1387,12 +3147,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.10891203703703704</v>
+        <v>0.108912037037037</v>
       </c>
       <c r="C19">
         <v>102</v>
@@ -1440,12 +3200,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.10902777777777778</v>
+        <v>0.109027777777778</v>
       </c>
       <c r="C20">
         <v>101</v>
@@ -1457,7 +3217,7 @@
         <v>3.73</v>
       </c>
       <c r="F20">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="G20">
         <v>55</v>
@@ -1493,12 +3253,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.10914351851851851</v>
+        <v>0.109143518518519</v>
       </c>
       <c r="C21">
         <v>105</v>
@@ -1546,12 +3306,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.10925925925925926</v>
+        <v>0.109259259259259</v>
       </c>
       <c r="C22">
         <v>108</v>
@@ -1599,12 +3359,12 @@
         <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
         <v>0.109375</v>
@@ -1655,12 +3415,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.10949074074074074</v>
+        <v>0.109490740740741</v>
       </c>
       <c r="C24">
         <v>121</v>
@@ -1708,12 +3468,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.10960648148148149</v>
+        <v>0.109606481481481</v>
       </c>
       <c r="C25">
         <v>124</v>
@@ -1722,7 +3482,7 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="F25">
         <v>3.44</v>
@@ -1761,12 +3521,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.10972222222222222</v>
+        <v>0.109722222222222</v>
       </c>
       <c r="C26">
         <v>129</v>
@@ -1814,12 +3574,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.10983796296296296</v>
+        <v>0.109837962962963</v>
       </c>
       <c r="C27">
         <v>136</v>
@@ -1867,12 +3627,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.10995370370370371</v>
+        <v>0.109953703703704</v>
       </c>
       <c r="C28">
         <v>141</v>
@@ -1884,7 +3644,7 @@
         <v>6.04</v>
       </c>
       <c r="F28">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="G28">
         <v>57</v>
@@ -1920,12 +3680,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.11006944444444444</v>
+        <v>0.110069444444444</v>
       </c>
       <c r="C29">
         <v>143</v>
@@ -1937,7 +3697,7 @@
         <v>6.12</v>
       </c>
       <c r="F29">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="G29">
         <v>58</v>
@@ -1973,12 +3733,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.11018518518518518</v>
+        <v>0.110185185185185</v>
       </c>
       <c r="C30">
         <v>144</v>
@@ -1990,7 +3750,7 @@
         <v>6.42</v>
       </c>
       <c r="F30">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="G30">
         <v>58</v>
@@ -2026,12 +3786,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.11030092592592593</v>
+        <v>0.110300925925926</v>
       </c>
       <c r="C31">
         <v>146</v>
@@ -2043,7 +3803,7 @@
         <v>6.31</v>
       </c>
       <c r="F31">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="G31">
         <v>58</v>
@@ -2070,7 +3830,7 @@
         <v>1266</v>
       </c>
       <c r="O31">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="P31">
         <v>151</v>
@@ -2079,12 +3839,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.11041666666666666</v>
+        <v>0.110416666666667</v>
       </c>
       <c r="C32">
         <v>152</v>
@@ -2132,12 +3892,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.1105324074074074</v>
+        <v>0.110532407407407</v>
       </c>
       <c r="C33">
         <v>150</v>
@@ -2149,7 +3909,7 @@
         <v>6.49</v>
       </c>
       <c r="F33">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="G33">
         <v>58</v>
@@ -2185,12 +3945,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.11064814814814815</v>
+        <v>0.110648148148148</v>
       </c>
       <c r="C34">
         <v>151</v>
@@ -2202,7 +3962,7 @@
         <v>6.61</v>
       </c>
       <c r="F34">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="G34">
         <v>58</v>
@@ -2238,12 +3998,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.11076388888888888</v>
+        <v>0.110763888888889</v>
       </c>
       <c r="C35">
         <v>154</v>
@@ -2282,7 +4042,7 @@
         <v>1182</v>
       </c>
       <c r="O35">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="P35">
         <v>143</v>
@@ -2291,12 +4051,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.11087962962962962</v>
+        <v>0.11087962962963</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -2344,12 +4104,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.11099537037037037</v>
+        <v>0.11099537037037</v>
       </c>
       <c r="C37">
         <v>159</v>
@@ -2361,7 +4121,7 @@
         <v>6.67</v>
       </c>
       <c r="F37">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="G37">
         <v>58</v>
@@ -2397,12 +4157,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.1111111111111111</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="C38">
         <v>159</v>
@@ -2450,12 +4210,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.11122685185185184</v>
+        <v>0.111226851851852</v>
       </c>
       <c r="C39">
         <v>157</v>
@@ -2467,7 +4227,7 @@
         <v>6.24</v>
       </c>
       <c r="F39">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="G39">
         <v>57</v>
@@ -2494,7 +4254,7 @@
         <v>1278</v>
       </c>
       <c r="O39">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="P39">
         <v>140</v>
@@ -2503,12 +4263,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.1113425925925926</v>
+        <v>0.111342592592593</v>
       </c>
       <c r="C40">
         <v>153</v>
@@ -2556,15 +4316,15 @@
         <v>48</v>
       </c>
       <c r="S40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.11145833333333333</v>
+        <v>0.111458333333333</v>
       </c>
       <c r="C41">
         <v>154</v>
@@ -2612,12 +4372,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.11157407407407406</v>
+        <v>0.111574074074074</v>
       </c>
       <c r="C42">
         <v>160</v>
@@ -2629,7 +4389,7 @@
         <v>6.72</v>
       </c>
       <c r="F42">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="G42">
         <v>58</v>
@@ -2665,12 +4425,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.11168981481481481</v>
+        <v>0.111689814814815</v>
       </c>
       <c r="C43">
         <v>163</v>
@@ -2718,12 +4478,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.11180555555555556</v>
+        <v>0.111805555555556</v>
       </c>
       <c r="C44">
         <v>167</v>
@@ -2762,7 +4522,7 @@
         <v>1157</v>
       </c>
       <c r="O44">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="P44">
         <v>139</v>
@@ -2771,12 +4531,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.11192129629629628</v>
+        <v>0.111921296296296</v>
       </c>
       <c r="C45">
         <v>169</v>
@@ -2815,7 +4575,7 @@
         <v>1109</v>
       </c>
       <c r="O45">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="P45">
         <v>140</v>
@@ -2824,12 +4584,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.11203703703703705</v>
+        <v>0.112037037037037</v>
       </c>
       <c r="C46">
         <v>171</v>
@@ -2868,7 +4628,7 @@
         <v>1095</v>
       </c>
       <c r="O46">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="P46">
         <v>139</v>
@@ -2877,12 +4637,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.11215277777777777</v>
+        <v>0.112152777777778</v>
       </c>
       <c r="C47">
         <v>175</v>
@@ -2930,75 +4690,75 @@
         <v>52</v>
       </c>
       <c r="S47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U47">
-        <f>AVERAGE(C41:C47)</f>
-        <v>165.57142857142858</v>
+        <f t="shared" ref="U47:AI47" si="1">AVERAGE(C41:C47)</f>
+        <v>165.571428571429</v>
       </c>
       <c r="V47">
-        <f>AVERAGE(D41:D47)</f>
-        <v>41.285714285714285</v>
+        <f t="shared" si="1"/>
+        <v>41.2857142857143</v>
       </c>
       <c r="W47">
-        <f>AVERAGE(E41:E47)</f>
-        <v>6.9385714285714277</v>
+        <f t="shared" si="1"/>
+        <v>6.93857142857143</v>
       </c>
       <c r="X47">
-        <f>AVERAGE(F41:F47)</f>
-        <v>4.7485714285714282</v>
+        <f t="shared" si="1"/>
+        <v>4.74857142857143</v>
       </c>
       <c r="Y47">
-        <f>AVERAGE(G41:G47)</f>
-        <v>57.428571428571431</v>
+        <f t="shared" si="1"/>
+        <v>57.4285714285714</v>
       </c>
       <c r="Z47">
-        <f>AVERAGE(H41:H47)</f>
-        <v>219.57142857142858</v>
+        <f t="shared" si="1"/>
+        <v>219.571428571429</v>
       </c>
       <c r="AA47">
-        <f>AVERAGE(I41:I47)</f>
-        <v>118.14285714285714</v>
+        <f t="shared" si="1"/>
+        <v>118.142857142857</v>
       </c>
       <c r="AB47">
-        <f>AVERAGE(J41:J47)</f>
-        <v>87.857142857142861</v>
+        <f t="shared" si="1"/>
+        <v>87.8571428571429</v>
       </c>
       <c r="AC47">
-        <f>AVERAGE(K41:K47)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="AD47">
-        <f>AVERAGE(L41:L47)</f>
-        <v>71.428571428571431</v>
+        <f t="shared" si="1"/>
+        <v>71.4285714285714</v>
       </c>
       <c r="AE47">
-        <f>AVERAGE(M41:M47)</f>
-        <v>788.71428571428567</v>
+        <f t="shared" si="1"/>
+        <v>788.714285714286</v>
       </c>
       <c r="AF47">
-        <f>AVERAGE(N41:N47)</f>
-        <v>1152.5714285714287</v>
+        <f t="shared" si="1"/>
+        <v>1152.57142857143</v>
       </c>
       <c r="AG47">
-        <f>AVERAGE(O41:O47)</f>
-        <v>4.4685714285714289</v>
+        <f t="shared" si="1"/>
+        <v>4.46857142857143</v>
       </c>
       <c r="AH47">
-        <f>AVERAGE(P41:P47)</f>
-        <v>140.57142857142858</v>
+        <f t="shared" si="1"/>
+        <v>140.571428571429</v>
       </c>
       <c r="AI47">
-        <f>AVERAGE(Q41:Q47)</f>
-        <v>50.142857142857146</v>
+        <f t="shared" si="1"/>
+        <v>50.1428571428571</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.11226851851851853</v>
+        <v>0.112268518518519</v>
       </c>
       <c r="C48">
         <v>177</v>
@@ -3046,12 +4806,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.11238425925925927</v>
+        <v>0.112384259259259</v>
       </c>
       <c r="C49">
         <v>180</v>
@@ -3060,7 +4820,7 @@
         <v>45</v>
       </c>
       <c r="E49">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="F49">
         <v>5.56</v>
@@ -3099,9 +4859,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
         <v>0.1125</v>
@@ -3113,7 +4873,7 @@
         <v>46</v>
       </c>
       <c r="E50">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="F50">
         <v>5.79</v>
@@ -3155,72 +4915,72 @@
         <v>44</v>
       </c>
       <c r="U50">
-        <f>AVERAGE(C47:C50)</f>
+        <f t="shared" ref="U50:AI50" si="2">AVERAGE(C47:C50)</f>
         <v>178</v>
       </c>
       <c r="V50">
-        <f>AVERAGE(D47:D50)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="W50">
-        <f>AVERAGE(E47:E50)</f>
+        <f t="shared" si="2"/>
         <v>7.9375</v>
       </c>
       <c r="X50">
-        <f>AVERAGE(F47:F50)</f>
-        <v>5.4274999999999993</v>
+        <f t="shared" si="2"/>
+        <v>5.4275</v>
       </c>
       <c r="Y50">
-        <f>AVERAGE(G47:G50)</f>
+        <f t="shared" si="2"/>
         <v>59.5</v>
       </c>
       <c r="Z50">
-        <f>AVERAGE(H47:H50)</f>
+        <f t="shared" si="2"/>
         <v>216.75</v>
       </c>
       <c r="AA50">
-        <f>AVERAGE(I47:I50)</f>
+        <f t="shared" si="2"/>
         <v>133.5</v>
       </c>
       <c r="AB50">
-        <f>AVERAGE(J47:J50)</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="AC50">
-        <f>AVERAGE(K47:K50)</f>
+        <f t="shared" si="2"/>
         <v>68.25</v>
       </c>
       <c r="AD50">
-        <f>AVERAGE(L47:L50)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="AE50">
-        <f>AVERAGE(M47:M50)</f>
+        <f t="shared" si="2"/>
         <v>690.5</v>
       </c>
       <c r="AF50">
-        <f>AVERAGE(N47:N50)</f>
+        <f t="shared" si="2"/>
         <v>1009.25</v>
       </c>
       <c r="AG50">
-        <f>AVERAGE(O47:O50)</f>
-        <v>5.1100000000000003</v>
+        <f t="shared" si="2"/>
+        <v>5.11</v>
       </c>
       <c r="AH50">
-        <f>AVERAGE(P47:P50)</f>
+        <f t="shared" si="2"/>
         <v>144.75</v>
       </c>
       <c r="AI50">
-        <f>AVERAGE(Q47:Q50)</f>
+        <f t="shared" si="2"/>
         <v>46.75</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.11261574074074072</v>
+        <v>0.112615740740741</v>
       </c>
       <c r="C51">
         <v>181</v>
@@ -3229,7 +4989,7 @@
         <v>47</v>
       </c>
       <c r="E51">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="F51">
         <v>5.9</v>
@@ -3268,15 +5028,15 @@
         <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.11273148148148149</v>
+        <v>0.112731481481481</v>
       </c>
       <c r="C52">
         <v>171</v>
@@ -3324,12 +5084,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.11284722222222222</v>
+        <v>0.112847222222222</v>
       </c>
       <c r="C53">
         <v>163</v>
@@ -3368,7 +5128,7 @@
         <v>1171</v>
       </c>
       <c r="O53">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P53">
         <v>146</v>
@@ -3377,36 +5137,46 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>